--- a/config_12.08/activity_exchange_server.xlsx
+++ b/config_12.08/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
   <si>
     <t>id|</t>
   </si>
@@ -652,10 +652,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金龙鱼大豆油4L</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>仓鼠抱枕</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -771,6 +767,102 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>双十二换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥克斯煮蛋器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯影牛肉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_12_12_lh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_12_12_lh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -851,7 +943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +965,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,6 +1114,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1522,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -1550,33 +1689,71 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+    <row r="8" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1607385600</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1607961599</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>7</v>
+      </c>
+      <c r="J8" s="37">
+        <v>7</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1607385600</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1607961599</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>8</v>
+      </c>
+      <c r="J9" s="37">
+        <v>8</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="1"/>
@@ -1805,7 +1982,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1892,7 +2069,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1903,13 +2080,30 @@
         <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
@@ -1963,11 +2157,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2618,15 +2812,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="25">
         <v>1</v>
@@ -2643,15 +2837,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
@@ -2668,15 +2862,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
@@ -2693,17 +2887,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1">
@@ -2717,17 +2911,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2744,17 +2938,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2771,17 +2965,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2798,17 +2992,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>
@@ -2825,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2850,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -2875,10 +3069,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -2900,7 +3094,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="33" t="s">
@@ -2924,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33" t="s">
@@ -2934,7 +3128,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="30">
         <v>3</v>
@@ -2951,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="33" t="s">
@@ -2961,7 +3155,7 @@
         <v>63</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="30">
         <v>2</v>
@@ -2978,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="33" t="s">
@@ -2988,7 +3182,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="30">
         <v>1</v>
@@ -3005,7 +3199,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="33" t="s">
@@ -3021,167 +3215,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="16"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="16"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:8">
+    <row r="42" spans="1:10" s="43" customFormat="1">
+      <c r="A42" s="43">
+        <v>41</v>
+      </c>
+      <c r="B42" s="44">
+        <v>5</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1">
+      <c r="A43" s="43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="44">
+        <v>5</v>
+      </c>
+      <c r="C43" s="44">
+        <v>2</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="43" customFormat="1">
+      <c r="A44" s="43">
+        <v>43</v>
+      </c>
+      <c r="B44" s="44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1">
+      <c r="A45" s="43">
+        <v>44</v>
+      </c>
+      <c r="B45" s="44">
+        <v>5</v>
+      </c>
+      <c r="C45" s="44">
+        <v>4</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="43" customFormat="1">
+      <c r="A46" s="43">
+        <v>45</v>
+      </c>
+      <c r="B46" s="44">
+        <v>5</v>
+      </c>
+      <c r="C46" s="44">
+        <v>5</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="43" customFormat="1">
+      <c r="A47" s="43">
+        <v>46</v>
+      </c>
+      <c r="B47" s="44">
+        <v>5</v>
+      </c>
+      <c r="C47" s="44">
+        <v>6</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1">
+      <c r="A48" s="43">
+        <v>47</v>
+      </c>
+      <c r="B48" s="44">
+        <v>5</v>
+      </c>
+      <c r="C48" s="44">
+        <v>7</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="43" customFormat="1">
+      <c r="A49" s="43">
+        <v>48</v>
+      </c>
+      <c r="B49" s="44">
+        <v>5</v>
+      </c>
+      <c r="C49" s="44">
+        <v>8</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="35" customFormat="1">
+      <c r="A50" s="35">
+        <v>49</v>
+      </c>
+      <c r="B50" s="40">
+        <v>6</v>
+      </c>
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="35" customFormat="1">
+      <c r="A51" s="35">
+        <v>50</v>
+      </c>
+      <c r="B51" s="40">
+        <v>6</v>
+      </c>
+      <c r="C51" s="40">
+        <v>2</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="35" customFormat="1">
+      <c r="A52" s="35">
+        <v>51</v>
+      </c>
+      <c r="B52" s="40">
+        <v>6</v>
+      </c>
+      <c r="C52" s="40">
+        <v>3</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="35" customFormat="1">
+      <c r="A53" s="35">
+        <v>52</v>
+      </c>
+      <c r="B53" s="40">
+        <v>6</v>
+      </c>
+      <c r="C53" s="40">
+        <v>4</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="44"/>
+      <c r="F53" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="35" customFormat="1">
+      <c r="A54" s="35">
+        <v>53</v>
+      </c>
+      <c r="B54" s="40">
+        <v>6</v>
+      </c>
+      <c r="C54" s="40">
+        <v>5</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="44"/>
+      <c r="F54" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="35" customFormat="1">
+      <c r="A55" s="35">
+        <v>54</v>
+      </c>
+      <c r="B55" s="40">
+        <v>6</v>
+      </c>
+      <c r="C55" s="40">
+        <v>6</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="35" customFormat="1">
+      <c r="A56" s="35">
+        <v>55</v>
+      </c>
+      <c r="B56" s="40">
+        <v>6</v>
+      </c>
+      <c r="C56" s="40">
+        <v>7</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="F56" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="35" customFormat="1">
+      <c r="A57" s="35">
+        <v>56</v>
+      </c>
+      <c r="B57" s="40">
+        <v>6</v>
+      </c>
+      <c r="C57" s="40">
+        <v>8</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="44"/>
+      <c r="F57" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="16"/>
       <c r="B58" s="20"/>
       <c r="C58" s="16"/>
@@ -3191,7 +3639,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="16"/>
@@ -3201,7 +3649,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10">
       <c r="A60" s="16"/>
       <c r="B60" s="20"/>
       <c r="C60" s="16"/>
@@ -3211,7 +3659,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="16"/>
       <c r="B61" s="20"/>
       <c r="C61" s="16"/>
@@ -3221,7 +3669,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10">
       <c r="A62" s="16"/>
       <c r="B62" s="20"/>
       <c r="C62" s="16"/>
@@ -3231,7 +3679,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63" s="16"/>
       <c r="B63" s="20"/>
       <c r="C63" s="16"/>
@@ -3241,7 +3689,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="16"/>

--- a/config_12.08/activity_exchange_server.xlsx
+++ b/config_12.08/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1430,8 +1430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2157,11 +2157,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3220,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" s="44">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" s="44">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" s="44">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" s="44">
         <v>4</v>
@@ -3319,7 +3319,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="44">
         <v>5</v>
@@ -3346,7 +3346,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="44">
         <v>6</v>
@@ -3373,7 +3373,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" s="44">
         <v>7</v>
@@ -3400,7 +3400,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" s="44">
         <v>8</v>
@@ -3427,7 +3427,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" s="40">
         <v>1</v>
@@ -3435,7 +3435,7 @@
       <c r="D50" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="40" t="s">
         <v>143</v>
       </c>
       <c r="F50" s="42"/>
@@ -3452,7 +3452,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" s="40">
         <v>2</v>
@@ -3460,7 +3460,7 @@
       <c r="D51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="40" t="s">
         <v>138</v>
       </c>
       <c r="F51" s="42"/>
@@ -3477,7 +3477,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" s="40">
         <v>3</v>
@@ -3485,7 +3485,7 @@
       <c r="D52" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="40" t="s">
         <v>139</v>
       </c>
       <c r="F52" s="42"/>
@@ -3502,7 +3502,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="40">
         <v>4</v>
@@ -3510,7 +3510,7 @@
       <c r="D53" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="44"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="42" t="s">
         <v>42</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" s="40">
         <v>5</v>
@@ -3534,7 +3534,7 @@
       <c r="D54" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="42" t="s">
         <v>42</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" s="40">
         <v>6</v>
@@ -3561,7 +3561,7 @@
       <c r="D55" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="42" t="s">
         <v>42</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" s="40">
         <v>7</v>
@@ -3588,7 +3588,7 @@
       <c r="D56" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="44"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="42" t="s">
         <v>42</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" s="40">
         <v>8</v>
@@ -3615,7 +3615,7 @@
       <c r="D57" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="44"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="42" t="s">
         <v>42</v>
       </c>
